--- a/data/trans_camb/P24_3_R-Urba-trans_camb.xlsx
+++ b/data/trans_camb/P24_3_R-Urba-trans_camb.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N19"/>
+  <dimension ref="A1:T20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -529,6 +529,12 @@
     <col width="14" customWidth="1" min="12" max="12"/>
     <col width="14" customWidth="1" min="13" max="13"/>
     <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
+    <col width="14" customWidth="1" min="18" max="18"/>
+    <col width="14" customWidth="1" min="19" max="19"/>
+    <col width="14" customWidth="1" min="20" max="20"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -546,22 +552,28 @@
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="K1" s="3" t="n"/>
       <c r="L1" s="3" t="n"/>
       <c r="M1" s="3" t="n"/>
       <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
+      <c r="R1" s="3" t="n"/>
+      <c r="S1" s="3" t="n"/>
+      <c r="T1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -583,47 +595,77 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
-          <t>Mz1/M1</t>
+          <t>M5/M1</t>
         </is>
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
           <t>M2/M1</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M3/M1</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M4/M1</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
-        <is>
-          <t>Mz1/M1</t>
-        </is>
-      </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M1</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
         <is>
           <t>M2/M1</t>
         </is>
       </c>
-      <c r="L2" s="3" t="inlineStr">
+      <c r="P2" s="3" t="inlineStr">
         <is>
           <t>M3/M1</t>
         </is>
       </c>
-      <c r="M2" s="3" t="inlineStr">
+      <c r="Q2" s="3" t="inlineStr">
         <is>
           <t>M4/M1</t>
         </is>
       </c>
-      <c r="N2" s="3" t="inlineStr">
-        <is>
-          <t>Mz1/M1</t>
+      <c r="R2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M1</t>
+        </is>
+      </c>
+      <c r="S2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="T2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
         </is>
       </c>
     </row>
@@ -642,6 +684,12 @@
       <c r="L3" s="2" t="n"/>
       <c r="M3" s="2" t="n"/>
       <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
+      <c r="R3" s="2" t="n"/>
+      <c r="S3" s="2" t="n"/>
+      <c r="T3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -656,62 +704,92 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>1,63</t>
+          <t>1,73</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>2,12</t>
+          <t>1,92</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>2,81</t>
+          <t>2,87</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>4,16</t>
+          <t>5,68</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>1,34</t>
+          <t>2,8</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>1,48</t>
+          <t>4,33</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>1,63</t>
+          <t>1,15</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>5,06</t>
+          <t>1,59</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>1,47</t>
+          <t>1,83</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>1,8</t>
+          <t>4,05</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>2,2</t>
+          <t>6,18</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>4,58</t>
+          <t>5,17</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>1,42</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>1,76</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>2,33</t>
+        </is>
+      </c>
+      <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>4,83</t>
+        </is>
+      </c>
+      <c r="S4" s="2" t="inlineStr">
+        <is>
+          <t>4,5</t>
+        </is>
+      </c>
+      <c r="T4" s="2" t="inlineStr">
+        <is>
+          <t>4,75</t>
         </is>
       </c>
     </row>
@@ -724,62 +802,92 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-0,34; 4,19</t>
+          <t>-0,5; 4,06</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,09; 4,41</t>
+          <t>0,18; 4,12</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,58; 4,88</t>
+          <t>0,8; 4,91</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>1,76; 6,36</t>
+          <t>2,97; 8,92</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-1,1; 4,34</t>
+          <t>-0,69; 6,21</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-0,98; 4,2</t>
+          <t>1,29; 7,33</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-0,9; 4,17</t>
+          <t>-1,8; 3,76</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>2,54; 8,04</t>
+          <t>-0,9; 3,96</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-0,41; 3,26</t>
+          <t>-0,92; 4,24</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>0,2; 3,45</t>
+          <t>1,14; 7,28</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>0,61; 3,86</t>
+          <t>2,69; 10,34</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>2,78; 6,52</t>
+          <t>1,52; 8,45</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>-0,33; 3,05</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>0,21; 3,51</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>0,58; 4,08</t>
+        </is>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>2,67; 6,95</t>
+        </is>
+      </c>
+      <c r="S5" s="2" t="inlineStr">
+        <is>
+          <t>1,82; 7,33</t>
+        </is>
+      </c>
+      <c r="T5" s="2" t="inlineStr">
+        <is>
+          <t>2,55; 7,13</t>
         </is>
       </c>
     </row>
@@ -792,62 +900,92 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>54,68%</t>
+          <t>57,98%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>71,15%</t>
+          <t>64,33%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>94,35%</t>
+          <t>96,23%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>139,44%</t>
+          <t>190,56%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>22,49%</t>
+          <t>32,35%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>24,74%</t>
+          <t>60,58%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>27,35%</t>
+          <t>19,22%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>84,84%</t>
+          <t>26,69%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>32,5%</t>
+          <t>30,75%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>39,61%</t>
+          <t>67,88%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>48,44%</t>
+          <t>61,75%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>100,99%</t>
+          <t>46,89%</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>31,31%</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>38,8%</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>51,35%</t>
+        </is>
+      </c>
+      <c r="R6" s="2" t="inlineStr">
+        <is>
+          <t>106,44%</t>
+        </is>
+      </c>
+      <c r="S6" s="2" t="inlineStr">
+        <is>
+          <t>48,08%</t>
+        </is>
+      </c>
+      <c r="T6" s="2" t="inlineStr">
+        <is>
+          <t>52,08%</t>
         </is>
       </c>
     </row>
@@ -860,62 +998,92 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-13,71; 188,02</t>
+          <t>-14,36; 185,0</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-0,59; 207,16</t>
+          <t>3,37; 215,32</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>10,3; 217,65</t>
+          <t>16,32; 226,73</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>42,1; 298,99</t>
+          <t>74,87; 407,31</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-16,26; 86,27</t>
+          <t>-6,99; 89,88</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-14,69; 86,41</t>
+          <t>14,24; 124,93</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-13,41; 86,81</t>
+          <t>-24,1; 75,74</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>34,2; 167,46</t>
+          <t>-13,76; 83,62</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-8,92; 82,76</t>
+          <t>-12,14; 90,33</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>3,35; 91,56</t>
+          <t>15,2; 155,61</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>9,08; 99,88</t>
+          <t>20,9; 122,86</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>50,89; 174,49</t>
+          <t>11,97; 88,87</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>-6,61; 77,89</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>3,14; 88,4</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>10,59; 102,95</t>
+        </is>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
+        <is>
+          <t>49,76; 175,73</t>
+        </is>
+      </c>
+      <c r="S7" s="2" t="inlineStr">
+        <is>
+          <t>16,71; 92,78</t>
+        </is>
+      </c>
+      <c r="T7" s="2" t="inlineStr">
+        <is>
+          <t>24,81; 88,26</t>
         </is>
       </c>
     </row>
@@ -932,62 +1100,92 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>1,85</t>
+          <t>2,14</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>2,21</t>
+          <t>2,32</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>1,48</t>
+          <t>1,54</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>3,25</t>
+          <t>5,28</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,59</t>
+          <t>1,73</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>1,95</t>
+          <t>3,76</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>0,37</t>
+          <t>1,18</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>0,98</t>
+          <t>1,97</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>1,22</t>
+          <t>0,66</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>2,07</t>
+          <t>8,96</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>0,93</t>
+          <t>0,22</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>2,12</t>
+          <t>8,2</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>1,66</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>2,14</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>1,1</t>
+        </is>
+      </c>
+      <c r="R8" s="2" t="inlineStr">
+        <is>
+          <t>7,11</t>
+        </is>
+      </c>
+      <c r="S8" s="2" t="inlineStr">
+        <is>
+          <t>0,88</t>
+        </is>
+      </c>
+      <c r="T8" s="2" t="inlineStr">
+        <is>
+          <t>5,87</t>
         </is>
       </c>
     </row>
@@ -1000,62 +1198,92 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-1,76; 5,16</t>
+          <t>-1,57; 6,04</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-2,03; 4,9</t>
+          <t>-1,59; 5,01</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-2,24; 4,0</t>
+          <t>-2,21; 4,23</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-0,55; 7,47</t>
+          <t>1,22; 8,88</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-1,99; 3,69</t>
+          <t>-2,97; 7,1</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-0,54; 5,41</t>
+          <t>-0,79; 9,28</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-2,21; 3,69</t>
+          <t>-2,01; 5,08</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-2,43; 5,27</t>
+          <t>-0,8; 4,68</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-1,23; 3,46</t>
+          <t>-1,97; 4,81</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>-0,36; 3,94</t>
+          <t>4,83; 14,44</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>-1,3; 2,98</t>
+          <t>-6,31; 6,96</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>-0,36; 5,37</t>
+          <t>1,99; 14,59</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>-0,78; 4,21</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>0,06; 4,04</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>-1,01; 3,45</t>
+        </is>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
+        <is>
+          <t>4,5; 10,52</t>
+        </is>
+      </c>
+      <c r="S9" s="2" t="inlineStr">
+        <is>
+          <t>-3,37; 5,26</t>
+        </is>
+      </c>
+      <c r="T9" s="2" t="inlineStr">
+        <is>
+          <t>1,84; 10,14</t>
         </is>
       </c>
     </row>
@@ -1068,62 +1296,92 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>49,15%</t>
+          <t>56,94%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>58,63%</t>
+          <t>61,7%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>39,43%</t>
+          <t>41,03%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>86,44%</t>
+          <t>140,19%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>10,55%</t>
+          <t>19,17%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>34,93%</t>
+          <t>53,62%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>6,72%</t>
+          <t>21,21%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>17,6%</t>
+          <t>35,35%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>26,01%</t>
+          <t>11,81%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>44,22%</t>
+          <t>160,88%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>19,82%</t>
+          <t>1,52%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>45,4%</t>
+          <t>125,22%</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>35,57%</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>45,71%</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>23,52%</t>
+        </is>
+      </c>
+      <c r="R10" s="2" t="inlineStr">
+        <is>
+          <t>152,12%</t>
+        </is>
+      </c>
+      <c r="S10" s="2" t="inlineStr">
+        <is>
+          <t>7,45%</t>
+        </is>
+      </c>
+      <c r="T10" s="2" t="inlineStr">
+        <is>
+          <t>86,37%</t>
         </is>
       </c>
     </row>
@@ -1136,62 +1394,92 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-37,42; 200,17</t>
+          <t>-36,1; 235,39</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-35,4; 214,26</t>
+          <t>-35,53; 203,34</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-38,77; 169,24</t>
+          <t>-40,01; 183,02</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-23,94; 299,45</t>
+          <t>0,55; 368,61</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-31,38; 77,71</t>
+          <t>-28,56; 91,3</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-12,42; 117,52</t>
+          <t>-11,35; 187,8</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-34,04; 83,99</t>
+          <t>-29,79; 107,69</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-39,77; 115,73</t>
+          <t>-12,42; 104,68</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-21,51; 90,27</t>
+          <t>-30,23; 105,95</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>-6,75; 108,46</t>
+          <t>65,62; 315,15</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>-21,23; 81,08</t>
+          <t>-35,39; 59,43</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>-11,82; 136,95</t>
+          <t>15,02; 342,21</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>-14,94; 109,33</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>-0,61; 112,44</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>-18,66; 88,25</t>
+        </is>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
+        <is>
+          <t>71,68; 268,2</t>
+        </is>
+      </c>
+      <c r="S11" s="2" t="inlineStr">
+        <is>
+          <t>-26,31; 50,53</t>
+        </is>
+      </c>
+      <c r="T11" s="2" t="inlineStr">
+        <is>
+          <t>19,81; 202,32</t>
         </is>
       </c>
     </row>
@@ -1208,60 +1496,90 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-0,47</t>
+          <t>0,06</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>4,24</t>
+          <t>4,26</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>1,0</t>
+          <t>1,38</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
+          <t>6,46</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
           <t>—</t>
         </is>
       </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>-2,31</t>
-        </is>
-      </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>0,11</t>
+          <t>—</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>-0,79</t>
+          <t>-1,95</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
+          <t>0,17</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>-1,04</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>6,67</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
           <t>—</t>
         </is>
       </c>
-      <c r="K12" s="2" t="inlineStr">
-        <is>
-          <t>-1,36</t>
-        </is>
-      </c>
-      <c r="L12" s="2" t="inlineStr">
-        <is>
-          <t>2,2</t>
-        </is>
-      </c>
-      <c r="M12" s="2" t="inlineStr">
-        <is>
-          <t>0,1</t>
-        </is>
-      </c>
       <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>-0,92</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>2,24</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>0,18</t>
+        </is>
+      </c>
+      <c r="R12" s="2" t="inlineStr">
+        <is>
+          <t>6,59</t>
+        </is>
+      </c>
+      <c r="S12" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="T12" s="2" t="inlineStr">
         <is>
           <t>—</t>
         </is>
@@ -1276,60 +1594,90 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-4,73; 4,15</t>
+          <t>-4,22; 5,43</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-0,87; 10,0</t>
+          <t>-0,82; 10,03</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-3,66; 5,51</t>
+          <t>-2,76; 6,65</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
+          <t>0,45; 13,83</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="G13" s="2" t="inlineStr">
-        <is>
-          <t>-8,24; 3,39</t>
-        </is>
-      </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-6,16; 5,77</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-6,21; 6,06</t>
+          <t>-7,4; 3,64</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
+          <t>-6,12; 6,17</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>-7,07; 5,19</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>-0,84; 15,87</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="K13" s="2" t="inlineStr">
-        <is>
-          <t>-4,75; 2,66</t>
-        </is>
-      </c>
-      <c r="L13" s="2" t="inlineStr">
-        <is>
-          <t>-1,83; 6,76</t>
-        </is>
-      </c>
-      <c r="M13" s="2" t="inlineStr">
-        <is>
-          <t>-3,71; 3,91</t>
-        </is>
-      </c>
       <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>-4,53; 2,91</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>-1,63; 6,06</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>-3,26; 4,68</t>
+        </is>
+      </c>
+      <c r="R13" s="2" t="inlineStr">
+        <is>
+          <t>2,1; 12,64</t>
+        </is>
+      </c>
+      <c r="S13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T13" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
@@ -1344,60 +1692,90 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-11,41%</t>
+          <t>1,47%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>101,97%</t>
+          <t>102,57%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>24,01%</t>
+          <t>33,2%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
+          <t>155,46%</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>-28,36%</t>
-        </is>
-      </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>1,38%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>-9,76%</t>
+          <t>-24,0%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
+          <t>2,09%</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>-12,77%</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>82,02%</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="K14" s="2" t="inlineStr">
-        <is>
-          <t>-22,25%</t>
-        </is>
-      </c>
-      <c r="L14" s="2" t="inlineStr">
-        <is>
-          <t>35,98%</t>
-        </is>
-      </c>
-      <c r="M14" s="2" t="inlineStr">
-        <is>
-          <t>1,59%</t>
-        </is>
-      </c>
       <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>-15,0%</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>36,64%</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>2,86%</t>
+        </is>
+      </c>
+      <c r="R14" s="2" t="inlineStr">
+        <is>
+          <t>107,71%</t>
+        </is>
+      </c>
+      <c r="S14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="T14" s="2" t="inlineStr">
         <is>
           <t>—%</t>
         </is>
@@ -1412,60 +1790,90 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-82,21; 211,59</t>
+          <t>-76,88; 298,5</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-23,25; 430,83</t>
+          <t>-20,43; 466,4</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-61,41; 268,31</t>
+          <t>-53,31; 299,77</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
+          <t>-7,32; 582,57</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>-73,57; 64,84</t>
-        </is>
-      </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-58,87; 116,93</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-58,7; 128,51</t>
+          <t>-68,41; 80,07</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
+          <t>-55,53; 117,49</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>-65,63; 93,22</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>-18,41; 292,19</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="K15" s="2" t="inlineStr">
-        <is>
-          <t>-60,07; 71,09</t>
-        </is>
-      </c>
-      <c r="L15" s="2" t="inlineStr">
-        <is>
-          <t>-25,98; 153,26</t>
-        </is>
-      </c>
-      <c r="M15" s="2" t="inlineStr">
-        <is>
-          <t>-47,15; 94,8</t>
-        </is>
-      </c>
       <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>-59,8; 70,13</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>-23,65; 130,44</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>-45,08; 109,87</t>
+        </is>
+      </c>
+      <c r="R15" s="2" t="inlineStr">
+        <is>
+          <t>24,26; 290,4</t>
+        </is>
+      </c>
+      <c r="S15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T15" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
@@ -1484,62 +1892,92 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>1,46</t>
+          <t>1,68</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>2,41</t>
+          <t>2,36</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>2,06</t>
+          <t>2,16</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>3,67</t>
+          <t>5,61</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>0,63</t>
+          <t>2,25</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>1,5</t>
+          <t>4,19</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>0,87</t>
+          <t>0,81</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>4,0</t>
+          <t>1,58</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>1,04</t>
+          <t>1,05</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>1,95</t>
+          <t>6,24</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>1,45</t>
+          <t>3,57</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>3,81</t>
+          <t>5,82</t>
+        </is>
+      </c>
+      <c r="O16" s="2" t="inlineStr">
+        <is>
+          <t>1,24</t>
+        </is>
+      </c>
+      <c r="P16" s="2" t="inlineStr">
+        <is>
+          <t>1,96</t>
+        </is>
+      </c>
+      <c r="Q16" s="2" t="inlineStr">
+        <is>
+          <t>1,59</t>
+        </is>
+      </c>
+      <c r="R16" s="2" t="inlineStr">
+        <is>
+          <t>5,93</t>
+        </is>
+      </c>
+      <c r="S16" s="2" t="inlineStr">
+        <is>
+          <t>2,88</t>
+        </is>
+      </c>
+      <c r="T16" s="2" t="inlineStr">
+        <is>
+          <t>5,0</t>
         </is>
       </c>
     </row>
@@ -1552,62 +1990,92 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-0,39; 3,42</t>
+          <t>-0,17; 3,51</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>0,46; 4,09</t>
+          <t>0,48; 4,0</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>0,3; 3,64</t>
+          <t>0,23; 3,77</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>1,5; 5,5</t>
+          <t>3,47; 7,85</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-1,01; 2,85</t>
+          <t>-0,66; 4,78</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-0,31; 3,42</t>
+          <t>1,87; 6,98</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-0,91; 2,71</t>
+          <t>-1,08; 2,62</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>1,94; 6,76</t>
+          <t>-0,11; 3,4</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-0,27; 2,36</t>
+          <t>-0,63; 3,03</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>0,7; 3,2</t>
+          <t>4,01; 9,04</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>0,22; 2,61</t>
+          <t>-0,05; 6,81</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>2,16; 5,48</t>
+          <t>2,63; 8,89</t>
+        </is>
+      </c>
+      <c r="O17" s="2" t="inlineStr">
+        <is>
+          <t>-0,05; 2,61</t>
+        </is>
+      </c>
+      <c r="P17" s="2" t="inlineStr">
+        <is>
+          <t>0,66; 3,21</t>
+        </is>
+      </c>
+      <c r="Q17" s="2" t="inlineStr">
+        <is>
+          <t>0,34; 2,91</t>
+        </is>
+      </c>
+      <c r="R17" s="2" t="inlineStr">
+        <is>
+          <t>4,34; 7,69</t>
+        </is>
+      </c>
+      <c r="S17" s="2" t="inlineStr">
+        <is>
+          <t>0,53; 5,24</t>
+        </is>
+      </c>
+      <c r="T17" s="2" t="inlineStr">
+        <is>
+          <t>2,9; 7,11</t>
         </is>
       </c>
     </row>
@@ -1620,62 +2088,92 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>42,3%</t>
+          <t>48,91%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>70,09%</t>
+          <t>68,64%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>59,86%</t>
+          <t>62,7%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>106,69%</t>
+          <t>163,07%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>10,45%</t>
+          <t>24,84%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>24,78%</t>
+          <t>58,91%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>14,39%</t>
+          <t>13,31%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>66,08%</t>
+          <t>26,01%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>21,71%</t>
+          <t>17,41%</t>
         </is>
       </c>
       <c r="L18" s="2" t="inlineStr">
         <is>
-          <t>40,74%</t>
+          <t>103,1%</t>
         </is>
       </c>
       <c r="M18" s="2" t="inlineStr">
         <is>
-          <t>30,4%</t>
+          <t>29,05%</t>
         </is>
       </c>
       <c r="N18" s="2" t="inlineStr">
         <is>
-          <t>79,76%</t>
+          <t>57,82%</t>
+        </is>
+      </c>
+      <c r="O18" s="2" t="inlineStr">
+        <is>
+          <t>25,91%</t>
+        </is>
+      </c>
+      <c r="P18" s="2" t="inlineStr">
+        <is>
+          <t>41,01%</t>
+        </is>
+      </c>
+      <c r="Q18" s="2" t="inlineStr">
+        <is>
+          <t>33,35%</t>
+        </is>
+      </c>
+      <c r="R18" s="2" t="inlineStr">
+        <is>
+          <t>124,16%</t>
+        </is>
+      </c>
+      <c r="S18" s="2" t="inlineStr">
+        <is>
+          <t>26,88%</t>
+        </is>
+      </c>
+      <c r="T18" s="2" t="inlineStr">
+        <is>
+          <t>58,23%</t>
         </is>
       </c>
     </row>
@@ -1688,75 +2186,112 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-10,21; 122,35</t>
+          <t>-5,99; 133,02</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>6,16; 148,76</t>
+          <t>8,42; 148,99</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>3,83; 135,88</t>
+          <t>1,59; 138,02</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>28,9; 202,64</t>
+          <t>68,8; 296,56</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-15,35; 54,09</t>
+          <t>-6,33; 63,68</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-4,77; 66,58</t>
+          <t>21,9; 114,62</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-13,06; 51,63</t>
+          <t>-15,45; 50,03</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>28,24; 128,02</t>
+          <t>-2,03; 64,23</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-5,23; 54,81</t>
+          <t>-9,66; 57,05</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>12,61; 76,2</t>
+          <t>57,51; 166,39</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>4,11; 60,41</t>
+          <t>-0,89; 63,17</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>39,03; 125,08</t>
+          <t>22,4; 100,73</t>
+        </is>
+      </c>
+      <c r="O19" s="2" t="inlineStr">
+        <is>
+          <t>-1,19; 62,54</t>
+        </is>
+      </c>
+      <c r="P19" s="2" t="inlineStr">
+        <is>
+          <t>11,44; 78,97</t>
+        </is>
+      </c>
+      <c r="Q19" s="2" t="inlineStr">
+        <is>
+          <t>5,69; 69,47</t>
+        </is>
+      </c>
+      <c r="R19" s="2" t="inlineStr">
+        <is>
+          <t>79,94; 180,68</t>
+        </is>
+      </c>
+      <c r="S19" s="2" t="inlineStr">
+        <is>
+          <t>4,33; 54,39</t>
+        </is>
+      </c>
+      <c r="T19" s="2" t="inlineStr">
+        <is>
+          <t>30,7; 92,09</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="8">
     <mergeCell ref="A4:A7"/>
+    <mergeCell ref="O1:T1"/>
     <mergeCell ref="A8:A11"/>
     <mergeCell ref="A12:A15"/>
+    <mergeCell ref="I1:N1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="G1:J1"/>
-    <mergeCell ref="K1:N1"/>
     <mergeCell ref="A16:A19"/>
+    <mergeCell ref="C1:H1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
